--- a/data/trans_orig/cron_prev_index-Edad-trans_orig.xlsx
+++ b/data/trans_orig/cron_prev_index-Edad-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.07765984901758653</v>
+        <v>0.07932099527408935</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.08699583988904452</v>
+        <v>0.08554241571016497</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1131977917941771</v>
+        <v>0.1134191983275646</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1239069812392441</v>
+        <v>0.1232424280584976</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1013327745658717</v>
+        <v>0.1028263544501484</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.09991405081785673</v>
+        <v>0.09991165752202076</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1184263530683319</v>
+        <v>0.1210946668605591</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.116160550580483</v>
+        <v>0.1217309318848642</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0969801605094191</v>
+        <v>0.09741839574747582</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1021546804132639</v>
+        <v>0.09900986762324356</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1266476754945531</v>
+        <v>0.1235378790708665</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1374750997743041</v>
+        <v>0.1342239536393019</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1294845780042698</v>
+        <v>0.1344308546390734</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1498090249262735</v>
+        <v>0.1474487612464175</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1828726723684179</v>
+        <v>0.1821659412898992</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2580629022545344</v>
+        <v>0.2548563379654756</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1575615862813271</v>
+        <v>0.1608417135589178</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1675584722150609</v>
+        <v>0.1694364252412747</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1899243798721436</v>
+        <v>0.1949715521039483</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2494108248437825</v>
+        <v>0.2607225021248659</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.139148693477724</v>
+        <v>0.136111471234327</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1513953130516652</v>
+        <v>0.1454080575332636</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1784778465354005</v>
+        <v>0.1720527777717711</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2364036785523492</v>
+        <v>0.2255178375074327</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>0.1288150896143531</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1982524962164886</v>
+        <v>0.1982524962164887</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1610496315275118</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07888185135361113</v>
+        <v>0.08002400093279118</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1123816795529576</v>
+        <v>0.1097673922521345</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1053141999547075</v>
+        <v>0.102333556310382</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1481947538858801</v>
+        <v>0.1493515533396337</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1311138483697891</v>
+        <v>0.1304618149626258</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1347258599537848</v>
+        <v>0.1317512008826298</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.120309122051465</v>
+        <v>0.1235078670621763</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1652416437630521</v>
+        <v>0.1641610969415031</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1090386684978231</v>
+        <v>0.1111987281932887</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1292868809693747</v>
+        <v>0.1278161804820246</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1198714279170381</v>
+        <v>0.11892540375114</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1706397722424535</v>
+        <v>0.1682994763626067</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1264882349522367</v>
+        <v>0.1281406034735568</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1767766163563102</v>
+        <v>0.1696708297963557</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1616458965076482</v>
+        <v>0.1618930992903095</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2676340926948811</v>
+        <v>0.2612069889965703</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1973349318988679</v>
+        <v>0.1968074745638684</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2071204235402109</v>
+        <v>0.2047566480676598</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1863219373442713</v>
+        <v>0.1904303400779697</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2429694948081917</v>
+        <v>0.2466307332857949</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1508655608387042</v>
+        <v>0.1505664634402074</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.177463298776651</v>
+        <v>0.1757778314023578</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1632629465847107</v>
+        <v>0.1626743236719043</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.234763803534629</v>
+        <v>0.2357694343444257</v>
       </c>
     </row>
     <row r="10">
@@ -965,7 +965,7 @@
         <v>0.1967522271573246</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.2521971944193974</v>
+        <v>0.2521971944193973</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1416005503323222</v>
+        <v>0.1454198241069455</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.177585770924762</v>
+        <v>0.1786027861887072</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1498996619871028</v>
+        <v>0.1489757710716501</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2138058672832708</v>
+        <v>0.218419944901657</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2286484886055589</v>
+        <v>0.2276880984555067</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.216488034767421</v>
+        <v>0.2180059306821567</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1790045778587362</v>
+        <v>0.1781628439356174</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2106919910150803</v>
+        <v>0.2125851991536185</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1975086599311667</v>
+        <v>0.1986236050344725</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2058344110963163</v>
+        <v>0.2085394417778337</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1744858674181909</v>
+        <v>0.1733360882800053</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2263660415738911</v>
+        <v>0.2240699126862972</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2117888287740002</v>
+        <v>0.2151395135632699</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2581534468249427</v>
+        <v>0.2565350330231219</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2192364200924356</v>
+        <v>0.2160268530456102</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3149212179376751</v>
+        <v>0.3094486567564105</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3132525048966768</v>
+        <v>0.3108435771528938</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.301175007678023</v>
+        <v>0.3060472781413226</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.249922050335794</v>
+        <v>0.2490607258444046</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2814445565194195</v>
+        <v>0.2819601853802157</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2495415592873177</v>
+        <v>0.2539898278272902</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2658591163627604</v>
+        <v>0.2683883529021944</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.223213762257423</v>
+        <v>0.2243367499889971</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2833715706022882</v>
+        <v>0.2828681478299379</v>
       </c>
     </row>
     <row r="13">
@@ -1101,7 +1101,7 @@
         <v>0.4196771987652156</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.5591774517901927</v>
+        <v>0.5591774517901928</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3604327067419187</v>
+        <v>0.3493616838460118</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2858608329771828</v>
+        <v>0.2844517295068386</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3595581434527386</v>
+        <v>0.3618932929025735</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5093673136522212</v>
+        <v>0.5081220155056584</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4335594078557721</v>
+        <v>0.4368968803843155</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.4076976514563913</v>
+        <v>0.4085487841352619</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3631360459165452</v>
+        <v>0.3680995206393012</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.4953709200720251</v>
+        <v>0.4945691709116674</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4147966930252169</v>
+        <v>0.4118658084426743</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3623342789695159</v>
+        <v>0.3606032625209274</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3773477346010267</v>
+        <v>0.380964603230998</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.5156400295305333</v>
+        <v>0.5195122637274088</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5011687844314165</v>
+        <v>0.4904274001435432</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.392981585461645</v>
+        <v>0.3967277468143063</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4684285190511879</v>
+        <v>0.4724162757813121</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6431210106838652</v>
+        <v>0.6458756585138051</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5814592021898581</v>
+        <v>0.5790474654955472</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5328159971271192</v>
+        <v>0.5352232719924763</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4836140546496851</v>
+        <v>0.4871383774716989</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.6025611994564676</v>
+        <v>0.5973995343798005</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5131596534571997</v>
+        <v>0.5182878386077641</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.4456376068473623</v>
+        <v>0.44417878617</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4617080472355271</v>
+        <v>0.4584229681211162</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.6007401929719944</v>
+        <v>0.6050724476088949</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>0.979661207939002</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.9686443966515305</v>
+        <v>0.9686443966515307</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.9967513789290086</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8473976057983543</v>
+        <v>0.834445267608697</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8001965596621264</v>
+        <v>0.7985013081321577</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6929513380860025</v>
+        <v>0.707913440857373</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8477508975330914</v>
+        <v>0.848876887004123</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9482011726043279</v>
+        <v>0.9489006145441368</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.9953263640200852</v>
+        <v>1.002909916379963</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8854200387745571</v>
+        <v>0.8879141876087226</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.9015807172458578</v>
+        <v>0.9026439502612534</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.9219571575868578</v>
+        <v>0.9272722262127405</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.9270293184049885</v>
+        <v>0.9342949756998957</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.8177134654770281</v>
+        <v>0.8196711375159249</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.8978443802214253</v>
+        <v>0.8969942373446181</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.053832329032567</v>
+        <v>1.050325800668522</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.00080073113191</v>
+        <v>0.9947349820382518</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9035242024283394</v>
+        <v>0.8989987221285864</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.023780108864077</v>
+        <v>1.018985877030042</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.15429364897075</v>
+        <v>1.151483384939522</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.221180851311479</v>
+        <v>1.211116176531404</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.073147856886518</v>
+        <v>1.078819245774273</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.047103116580237</v>
+        <v>1.038884226188447</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.069159569735732</v>
+        <v>1.082173755950886</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1.075090450503239</v>
+        <v>1.079457339781134</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.9574846429297498</v>
+        <v>0.9591617620180598</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>1.009843007055218</v>
+        <v>1.003641563087077</v>
       </c>
     </row>
     <row r="19">
@@ -1373,7 +1373,7 @@
         <v>1.39649069333992</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>1.39338107234596</v>
+        <v>1.393381072345961</v>
       </c>
     </row>
     <row r="20">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.074782713602833</v>
+        <v>1.069593063398307</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.450398548083669</v>
+        <v>1.450043236948499</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.188980641772396</v>
+        <v>1.190012250867657</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.178439766701716</v>
+        <v>1.175283510452018</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.497357117284241</v>
+        <v>1.501511973241784</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>1.552915814480172</v>
+        <v>1.559377057015322</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>1.364472089839028</v>
+        <v>1.34804382491477</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>1.421774276147032</v>
+        <v>1.421983369610575</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>1.321184511211271</v>
+        <v>1.334983673864917</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1.548950035519308</v>
+        <v>1.549726169972392</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1.313439489557652</v>
+        <v>1.314421857195905</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>1.324659093725881</v>
+        <v>1.324645082603089</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.311086859830203</v>
+        <v>1.30864047042863</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>1.746701875090864</v>
+        <v>1.746841514922367</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.433245229041612</v>
+        <v>1.427747587783434</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1.380248004388199</v>
+        <v>1.372255562299714</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>1.746840032329849</v>
+        <v>1.751844340987867</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>1.801009279131626</v>
+        <v>1.81803171052802</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>1.62208049941547</v>
+        <v>1.615388014649937</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>1.593583309275324</v>
+        <v>1.603569475945639</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>1.507236352414469</v>
+        <v>1.523665550785123</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1.731035423931629</v>
+        <v>1.738418338728207</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1.479665107120827</v>
+        <v>1.491776312415929</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>1.463981387118582</v>
+        <v>1.455324438621883</v>
       </c>
     </row>
     <row r="22">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.353319447031561</v>
+        <v>1.341468071620643</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.67422924527705</v>
+        <v>1.660921171133308</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.519755875800762</v>
+        <v>1.527518928096481</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.622656466728968</v>
+        <v>1.621948727544186</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.71306730333251</v>
+        <v>1.695463300176682</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1.948055770238108</v>
+        <v>1.935995231948415</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.638357472704474</v>
+        <v>1.636932773296732</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.006314285242154</v>
+        <v>1.995542781309177</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.597833913035333</v>
+        <v>1.597313710411293</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1.872672931802116</v>
+        <v>1.873033013699802</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1.62908075883986</v>
+        <v>1.628305117336589</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>1.875904889415381</v>
+        <v>1.879558803944022</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.646684854009333</v>
+        <v>1.64719325159449</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.996404939283083</v>
+        <v>1.982633976962087</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.782700161231591</v>
+        <v>1.782657656353379</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.876510330450076</v>
+        <v>1.881107887278572</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.97073968479852</v>
+        <v>1.967937020357429</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.199980790710186</v>
+        <v>2.201182937333002</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.912666804539731</v>
+        <v>1.920663229068586</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.208701378255486</v>
+        <v>2.196176867543812</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.80374658312326</v>
+        <v>1.796607350072139</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2.075130446162455</v>
+        <v>2.072038954115114</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1.828447382510203</v>
+        <v>1.827542334544878</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>2.039132452113547</v>
+        <v>2.036050430241488</v>
       </c>
     </row>
     <row r="25">
@@ -1633,7 +1633,7 @@
         <v>0.6538283830799925</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.7890001331569906</v>
+        <v>0.7890001331569905</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.5522916427951372</v>
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.4237657938785447</v>
+        <v>0.4253481357657214</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.5039524872747557</v>
+        <v>0.5030914438584071</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.4915932494561104</v>
+        <v>0.4907760365877032</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.6309818730046102</v>
+        <v>0.6352255731819845</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.6157169641580758</v>
+        <v>0.6174275684254669</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.6699446256311937</v>
+        <v>0.6728352965507102</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.6161107934315507</v>
+        <v>0.6197571433691604</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.7569765137863683</v>
+        <v>0.757118536123594</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.5291684973396765</v>
+        <v>0.5312878104321391</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.5971820292311648</v>
+        <v>0.5992093403241054</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.5649217297973197</v>
+        <v>0.5649935164016585</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.7090048513544225</v>
+        <v>0.7072067191602781</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.4787891202888065</v>
+        <v>0.4814636860907485</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.5675987340636762</v>
+        <v>0.568506932362371</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.5482944037238051</v>
+        <v>0.5528740100785009</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.6987427365049179</v>
+        <v>0.7000688675404154</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.6855296412286035</v>
+        <v>0.6834543440380882</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.7422908459994652</v>
+        <v>0.7480878500524206</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.6879202362833139</v>
+        <v>0.6896769905393018</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.8191131866312333</v>
+        <v>0.8218553914838364</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.5745569864761132</v>
+        <v>0.5754508310523667</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.6483475748762936</v>
+        <v>0.6487097490579401</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.6110738834184224</v>
+        <v>0.611021247964156</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.7513594766897712</v>
+        <v>0.7524856168970261</v>
       </c>
     </row>
     <row r="28">
